--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -64,6 +64,9 @@
     <t>broke</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -88,265 +91,262 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>happy</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>cheese</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>kids</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>ze</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>pan</t>
+    <t>far</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>big</t>
   </si>
   <si>
     <t>worth</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>also</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>really</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>really</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>made</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -710,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>112</v>
@@ -779,13 +779,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8452012383900929</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M6">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2790697674418605</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <v>0.7586206896551724</v>
@@ -1029,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2692307692307692</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.7186147186147186</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2626262626262627</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1097,10 +1097,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <v>0.7173913043478261</v>
@@ -1129,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1243243243243243</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1147,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1171,21 +1171,45 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.145631067961165</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>88</v>
+      </c>
       <c r="J11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1223,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.6610169491525424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6252006420545746</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L17">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M17">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,12 +1377,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K18">
         <v>0.625</v>
@@ -1384,16 +1408,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.5915492957746479</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1405,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1431,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.578125</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1457,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1488,16 +1512,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.53125</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1509,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5192307692307693</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1535,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4761904761904762</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1561,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4736842105263158</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1587,47 +1611,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4730538922155689</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L27">
+        <v>88</v>
+      </c>
+      <c r="M27">
+        <v>88</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>79</v>
-      </c>
-      <c r="M27">
-        <v>79</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4511278195488722</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1639,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.4375</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L29">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1665,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4337349397590362</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1691,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4313725490196079</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1717,21 +1741,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4262295081967213</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1743,21 +1767,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4156626506024096</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L33">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1769,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.41</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1795,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3947368421052632</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1821,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L36">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1847,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3735408560311284</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L37">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1873,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>161</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3673469387755102</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L38">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1899,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3650793650793651</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1925,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3529411764705883</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L40">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1951,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>264</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.3465753424657534</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L41">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1977,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>477</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.3423423423423423</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L42">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M42">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2003,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.3384615384615385</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L43">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="M43">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2029,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>43</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.3267326732673267</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2055,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.3265306122448979</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2081,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.3260869565217391</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2107,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.3233082706766917</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L47">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M47">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2133,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.3064516129032258</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2159,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.302158273381295</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L49">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M49">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2185,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>97</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.2966507177033493</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L50">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2211,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.2894736842105263</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2237,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2561894510226049</v>
+        <v>0.2669537136706135</v>
       </c>
       <c r="L52">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="M52">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2263,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2469135802469136</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L53">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2289,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>61</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.2285714285714286</v>
+        <v>0.2507836990595611</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2315,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>81</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2252252252252252</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2341,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2205882352941176</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2367,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.219435736677116</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="L57">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2393,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>249</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.2134146341463415</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L58">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="M58">
-        <v>35</v>
+        <v>166</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2419,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>129</v>
+        <v>616</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.1986754966887417</v>
+        <v>0.2023809523809524</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2445,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.1982097186700767</v>
+        <v>0.2</v>
       </c>
       <c r="L60">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2471,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>627</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.1904761904761905</v>
+        <v>0.2</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2497,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1880794701986755</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L62">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M62">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2523,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1847826086956522</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2549,47 +2573,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1759259259259259</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L64">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M64">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>89</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1721311475409836</v>
+        <v>0.1743119266055046</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2601,47 +2625,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.1696428571428572</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1610738255033557</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M67">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2653,21 +2677,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.1559633027522936</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2679,21 +2703,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1395348837209302</v>
+        <v>0.1557377049180328</v>
       </c>
       <c r="L69">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M69">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2705,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.1374570446735395</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M70">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2731,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>251</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1362530413625304</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="L71">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M71">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2757,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>355</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1355932203389831</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L72">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M72">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2783,73 +2807,73 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>153</v>
+        <v>392</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.1280788177339902</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M73">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>177</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.127027027027027</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L74">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="M74">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N74">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>323</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1217712177121771</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L75">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M75">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2861,21 +2885,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>238</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.1153846153846154</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2887,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.1134453781512605</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L77">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2913,21 +2937,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>211</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.1096491228070175</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L78">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M78">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2939,21 +2963,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>406</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.1090909090909091</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2965,21 +2989,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.1045454545454545</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L80">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M80">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2991,21 +3015,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>394</v>
+        <v>138</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K81">
-        <v>0.1042944785276074</v>
+        <v>0.1151515151515152</v>
       </c>
       <c r="L81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3022,16 +3046,16 @@
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.1037037037037037</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L82">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M82">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3043,47 +3067,47 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>242</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.1025641025641026</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>140</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.1002865329512894</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L84">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M84">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3095,99 +3119,99 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>628</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K85">
-        <v>0.09803921568627451</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="L85">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K86">
-        <v>0.0954653937947494</v>
+        <v>0.08590102707749767</v>
       </c>
       <c r="L86">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M86">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>379</v>
+        <v>979</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K87">
-        <v>0.08695652173913043</v>
+        <v>0.08464849354375897</v>
       </c>
       <c r="L87">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M87">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="N87">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O87">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>189</v>
+        <v>638</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K88">
-        <v>0.08064516129032258</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3199,21 +3223,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K89">
-        <v>0.07377049180327869</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L89">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M89">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3225,21 +3249,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>339</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K90">
-        <v>0.06457564575645756</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L90">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M90">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3251,189 +3275,163 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>507</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K91">
-        <v>0.06091370558375635</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L91">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M91">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q91">
-        <v>370</v>
+        <v>509</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K92">
-        <v>0.06069094304388422</v>
+        <v>0.0521978021978022</v>
       </c>
       <c r="L92">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="N92">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O92">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>1006</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K93">
-        <v>0.04696132596685083</v>
+        <v>0.04406130268199233</v>
       </c>
       <c r="L93">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N93">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>345</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K94">
-        <v>0.0412621359223301</v>
+        <v>0.04116222760290557</v>
       </c>
       <c r="L94">
         <v>17</v>
       </c>
       <c r="M94">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N94">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O94">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K95">
-        <v>0.04079861111111111</v>
+        <v>0.03292894280762565</v>
       </c>
       <c r="L95">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M95">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N95">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="O95">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>1105</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K96">
-        <v>0.036468330134357</v>
+        <v>0.02755905511811024</v>
       </c>
       <c r="L96">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N96">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O96">
-        <v>0.05000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="97" spans="10:17">
-      <c r="J97" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K97">
-        <v>0.02105263157894737</v>
-      </c>
-      <c r="L97">
-        <v>16</v>
-      </c>
-      <c r="M97">
-        <v>23</v>
-      </c>
-      <c r="N97">
-        <v>0.7</v>
-      </c>
-      <c r="O97">
-        <v>0.3</v>
-      </c>
-      <c r="P97" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q97">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
